--- a/附件4.xlsx
+++ b/附件4.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021-9-7\数学建模竞赛组委会、专家组工作\竞赛2023\C题鲜活农产品的自动定价与补货决策\2023-8-26-2 C题(蔡志杰)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\university\code\Python_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFFEB90-CE6E-4CE4-8CAB-EDE184E6CF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="平均损耗率(%)_小分类编码_不同值" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="529">
   <si>
     <t>小分类编码</t>
   </si>
@@ -1647,13 +1661,49 @@
   </si>
   <si>
     <t>虫草花(盒)(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水生根茎类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花叶类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用菌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花菜类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损耗率均值(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -2030,14 +2080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2123,19 +2173,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -2145,8 +2197,20 @@
       <c r="C1" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>386</v>
       </c>
@@ -2156,8 +2220,20 @@
       <c r="C2" s="3">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>11.035199999999985</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2">
+        <v>11.035199999999985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -2167,8 +2243,20 @@
       <c r="C3" s="3">
         <v>10.46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8.3269014084507056</v>
+      </c>
+      <c r="F3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G3">
+        <v>8.3269014084507056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
@@ -2178,8 +2266,20 @@
       <c r="C4" s="3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>8.8436842105263178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G4">
+        <v>8.8436842105263178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>406</v>
       </c>
@@ -2189,8 +2289,20 @@
       <c r="C5" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>7.8655555555555594</v>
+      </c>
+      <c r="F5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5">
+        <v>7.8655555555555594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>331</v>
       </c>
@@ -2200,8 +2312,20 @@
       <c r="C6" s="3">
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9.6040000000000028</v>
+      </c>
+      <c r="F6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G6">
+        <v>9.6040000000000028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2211,8 +2335,20 @@
       <c r="C7" s="3">
         <v>18.52</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>9.7919999999999998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7">
+        <v>9.7919999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -2222,8 +2358,11 @@
       <c r="C8" s="3">
         <v>15.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -2233,8 +2372,11 @@
       <c r="C9" s="3">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>353</v>
       </c>
@@ -2244,8 +2386,11 @@
       <c r="C10" s="3">
         <v>7.59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
@@ -2255,8 +2400,11 @@
       <c r="C11" s="3">
         <v>13.46</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -2266,8 +2414,11 @@
       <c r="C12" s="3">
         <v>14.43</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>380</v>
       </c>
@@ -2277,8 +2428,11 @@
       <c r="C13" s="3">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>98</v>
       </c>
@@ -2288,8 +2442,11 @@
       <c r="C14" s="3">
         <v>12.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>372</v>
       </c>
@@ -2299,8 +2456,11 @@
       <c r="C15" s="3">
         <v>6.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>396</v>
       </c>
@@ -2310,8 +2470,11 @@
       <c r="C16" s="3">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -2321,8 +2484,11 @@
       <c r="C17" s="3">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
@@ -2332,8 +2498,11 @@
       <c r="C18" s="3">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2343,8 +2512,11 @@
       <c r="C19" s="3">
         <v>22.27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>339</v>
       </c>
@@ -2354,8 +2526,11 @@
       <c r="C20" s="3">
         <v>8.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -2365,8 +2540,11 @@
       <c r="C21" s="3">
         <v>12.81</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2376,8 +2554,11 @@
       <c r="C22" s="3">
         <v>15.32</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>362</v>
       </c>
@@ -2387,8 +2568,11 @@
       <c r="C23" s="3">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>366</v>
       </c>
@@ -2398,8 +2582,11 @@
       <c r="C24" s="3">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>113</v>
       </c>
@@ -2409,8 +2596,11 @@
       <c r="C25" s="3">
         <v>11.76</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>374</v>
       </c>
@@ -2420,8 +2610,11 @@
       <c r="C26" s="3">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>383</v>
       </c>
@@ -2431,8 +2624,11 @@
       <c r="C27" s="3">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -2442,8 +2638,11 @@
       <c r="C28" s="3">
         <v>13.82</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>388</v>
       </c>
@@ -2453,8 +2652,11 @@
       <c r="C29" s="3">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2464,8 +2666,11 @@
       <c r="C30" s="3">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>321</v>
       </c>
@@ -2475,8 +2680,11 @@
       <c r="C31" s="3">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>156</v>
       </c>
@@ -2486,8 +2694,11 @@
       <c r="C32" s="3">
         <v>10.46</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>153</v>
       </c>
@@ -2497,8 +2708,11 @@
       <c r="C33" s="3">
         <v>10.64</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>410</v>
       </c>
@@ -2508,8 +2722,11 @@
       <c r="C34" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>117</v>
       </c>
@@ -2519,8 +2736,11 @@
       <c r="C35" s="3">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>379</v>
       </c>
@@ -2530,8 +2750,11 @@
       <c r="C36" s="3">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>414</v>
       </c>
@@ -2541,8 +2764,11 @@
       <c r="C37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>327</v>
       </c>
@@ -2552,8 +2778,11 @@
       <c r="C38" s="3">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
@@ -2563,8 +2792,11 @@
       <c r="C39" s="3">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>356</v>
       </c>
@@ -2574,8 +2806,11 @@
       <c r="C40" s="3">
         <v>7.08</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -2585,8 +2820,11 @@
       <c r="C41" s="3">
         <v>15.98</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>283</v>
       </c>
@@ -2596,8 +2834,11 @@
       <c r="C42" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>102</v>
       </c>
@@ -2607,8 +2848,11 @@
       <c r="C43" s="3">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -2618,8 +2862,11 @@
       <c r="C44" s="3">
         <v>18.510000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -2629,8 +2876,11 @@
       <c r="C45" s="3">
         <v>29.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>391</v>
       </c>
@@ -2640,8 +2890,11 @@
       <c r="C46" s="3">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -2651,8 +2904,11 @@
       <c r="C47" s="3">
         <v>12.78</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>323</v>
       </c>
@@ -2662,8 +2918,11 @@
       <c r="C48" s="3">
         <v>9.24</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>171</v>
       </c>
@@ -2673,8 +2932,11 @@
       <c r="C49" s="3">
         <v>9.89</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>326</v>
       </c>
@@ -2684,8 +2946,11 @@
       <c r="C50" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>337</v>
       </c>
@@ -2695,8 +2960,11 @@
       <c r="C51" s="3">
         <v>8.42</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
@@ -2706,8 +2974,11 @@
       <c r="C52" s="3">
         <v>11.38</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -2717,8 +2988,11 @@
       <c r="C53" s="3">
         <v>16.329999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>376</v>
       </c>
@@ -2728,8 +3002,11 @@
       <c r="C54" s="3">
         <v>5.86</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>382</v>
       </c>
@@ -2739,8 +3016,11 @@
       <c r="C55" s="3">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +3030,11 @@
       <c r="C56" s="3">
         <v>16.89</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>29</v>
       </c>
@@ -2761,8 +3044,11 @@
       <c r="C57" s="3">
         <v>20.38</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>161</v>
       </c>
@@ -2772,8 +3058,11 @@
       <c r="C58" s="3">
         <v>10.18</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>400</v>
       </c>
@@ -2783,8 +3072,11 @@
       <c r="C59" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -2794,8 +3086,11 @@
       <c r="C60" s="3">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>24</v>
       </c>
@@ -2805,8 +3100,11 @@
       <c r="C61" s="3">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>348</v>
       </c>
@@ -2816,8 +3114,11 @@
       <c r="C62" s="3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>328</v>
       </c>
@@ -2827,8 +3128,11 @@
       <c r="C63" s="3">
         <v>8.93</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -2838,8 +3142,11 @@
       <c r="C64" s="3">
         <v>12.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
@@ -2849,8 +3156,11 @@
       <c r="C65" s="3">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -2860,8 +3170,11 @@
       <c r="C66" s="3">
         <v>12.42</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>329</v>
       </c>
@@ -2871,8 +3184,11 @@
       <c r="C67" s="3">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
@@ -2882,8 +3198,11 @@
       <c r="C68" s="3">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>20</v>
       </c>
@@ -2893,8 +3212,11 @@
       <c r="C69" s="3">
         <v>27.84</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -2904,8 +3226,11 @@
       <c r="C70" s="3">
         <v>26.16</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -2915,8 +3240,11 @@
       <c r="C71" s="3">
         <v>15.01</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>324</v>
       </c>
@@ -2926,8 +3254,11 @@
       <c r="C72" s="3">
         <v>9.14</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3268,11 @@
       <c r="C73" s="3">
         <v>12.88</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
@@ -2948,8 +3282,11 @@
       <c r="C74" s="3">
         <v>13.28</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>56</v>
       </c>
@@ -2959,8 +3296,11 @@
       <c r="C75" s="3">
         <v>15.92</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>47</v>
       </c>
@@ -2970,8 +3310,11 @@
       <c r="C76" s="3">
         <v>16.63</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>54</v>
       </c>
@@ -2981,8 +3324,11 @@
       <c r="C77" s="3">
         <v>15.98</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>58</v>
       </c>
@@ -2992,8 +3338,11 @@
       <c r="C78" s="3">
         <v>15.68</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>72</v>
       </c>
@@ -3003,8 +3352,11 @@
       <c r="C79" s="3">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>384</v>
       </c>
@@ -3014,8 +3366,11 @@
       <c r="C80" s="3">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -3025,8 +3380,11 @@
       <c r="C81" s="3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>284</v>
       </c>
@@ -3036,8 +3394,11 @@
       <c r="C82" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>50</v>
       </c>
@@ -3047,8 +3408,11 @@
       <c r="C83" s="3">
         <v>16.190000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>121</v>
       </c>
@@ -3058,8 +3422,11 @@
       <c r="C84" s="3">
         <v>11.56</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>350</v>
       </c>
@@ -3069,8 +3436,11 @@
       <c r="C85" s="3">
         <v>7.63</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>138</v>
       </c>
@@ -3080,8 +3450,11 @@
       <c r="C86" s="3">
         <v>11.02</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>140</v>
       </c>
@@ -3091,8 +3464,11 @@
       <c r="C87" s="3">
         <v>10.94</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>286</v>
       </c>
@@ -3102,8 +3478,11 @@
       <c r="C88" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>39</v>
       </c>
@@ -3113,8 +3492,11 @@
       <c r="C89" s="3">
         <v>17.059999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>106</v>
       </c>
@@ -3124,8 +3506,11 @@
       <c r="C90" s="3">
         <v>11.93</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>345</v>
       </c>
@@ -3135,8 +3520,11 @@
       <c r="C91" s="3">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>163</v>
       </c>
@@ -3146,8 +3534,11 @@
       <c r="C92" s="3">
         <v>10.17</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>375</v>
       </c>
@@ -3157,8 +3548,11 @@
       <c r="C93" s="3">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
@@ -3168,8 +3562,11 @@
       <c r="C94" s="3">
         <v>11.93</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>108</v>
       </c>
@@ -3179,8 +3576,11 @@
       <c r="C95" s="3">
         <v>11.93</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>169</v>
       </c>
@@ -3190,8 +3590,11 @@
       <c r="C96" s="3">
         <v>9.9700000000000006</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>136</v>
       </c>
@@ -3201,8 +3604,11 @@
       <c r="C97" s="3">
         <v>11.03</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>165</v>
       </c>
@@ -3212,8 +3618,11 @@
       <c r="C98" s="3">
         <v>10.029999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>370</v>
       </c>
@@ -3223,8 +3632,11 @@
       <c r="C99" s="3">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>65</v>
       </c>
@@ -3234,8 +3646,11 @@
       <c r="C100" s="3">
         <v>15.16</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>119</v>
       </c>
@@ -3245,8 +3660,11 @@
       <c r="C101" s="3">
         <v>11.58</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>378</v>
       </c>
@@ -3256,8 +3674,11 @@
       <c r="C102" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>358</v>
       </c>
@@ -3267,8 +3688,11 @@
       <c r="C103" s="3">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -3278,8 +3702,11 @@
       <c r="C104" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -3289,8 +3716,11 @@
       <c r="C105" s="3">
         <v>12.69</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>317</v>
       </c>
@@ -3300,8 +3730,11 @@
       <c r="C106" s="3">
         <v>9.34</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -3311,8 +3744,11 @@
       <c r="C107" s="3">
         <v>8.75</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>343</v>
       </c>
@@ -3322,8 +3758,11 @@
       <c r="C108" s="3">
         <v>8.11</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -3333,8 +3772,11 @@
       <c r="C109" s="3">
         <v>11.81</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>291</v>
       </c>
@@ -3344,8 +3786,11 @@
       <c r="C110" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>360</v>
       </c>
@@ -3355,8 +3800,11 @@
       <c r="C111" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>364</v>
       </c>
@@ -3366,8 +3814,11 @@
       <c r="C112" s="3">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -3377,8 +3828,11 @@
       <c r="C113" s="3">
         <v>10.94</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>131</v>
       </c>
@@ -3388,8 +3842,11 @@
       <c r="C114" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>160</v>
       </c>
@@ -3399,8 +3856,11 @@
       <c r="C115" s="3">
         <v>10.33</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>330</v>
       </c>
@@ -3410,8 +3870,11 @@
       <c r="C116" s="3">
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3421,8 +3884,11 @@
       <c r="C117" s="3">
         <v>11.62</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>90</v>
       </c>
@@ -3432,8 +3898,11 @@
       <c r="C118" s="3">
         <v>12.69</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>144</v>
       </c>
@@ -3443,8 +3912,11 @@
       <c r="C119" s="3">
         <v>10.94</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>319</v>
       </c>
@@ -3454,8 +3926,11 @@
       <c r="C120" s="3">
         <v>9.27</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>293</v>
       </c>
@@ -3465,8 +3940,11 @@
       <c r="C121" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>146</v>
       </c>
@@ -3476,8 +3954,11 @@
       <c r="C122" s="3">
         <v>10.94</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>335</v>
       </c>
@@ -3487,8 +3968,11 @@
       <c r="C123" s="3">
         <v>8.7100000000000009</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>389</v>
       </c>
@@ -3498,8 +3982,11 @@
       <c r="C124" s="3">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>295</v>
       </c>
@@ -3509,8 +3996,11 @@
       <c r="C125" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>440</v>
       </c>
@@ -3520,8 +4010,11 @@
       <c r="C126" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>276</v>
       </c>
@@ -3531,8 +4024,11 @@
       <c r="C127" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>450</v>
       </c>
@@ -3542,8 +4038,11 @@
       <c r="C128" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>404</v>
       </c>
@@ -3553,8 +4052,11 @@
       <c r="C129" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>151</v>
       </c>
@@ -3564,8 +4066,11 @@
       <c r="C130" s="3">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>297</v>
       </c>
@@ -3575,8 +4080,11 @@
       <c r="C131" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>280</v>
       </c>
@@ -3586,8 +4094,11 @@
       <c r="C132" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>300</v>
       </c>
@@ -3597,8 +4108,11 @@
       <c r="C133" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>313</v>
       </c>
@@ -3608,8 +4122,11 @@
       <c r="C134" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>305</v>
       </c>
@@ -3619,8 +4136,11 @@
       <c r="C135" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>309</v>
       </c>
@@ -3630,8 +4150,11 @@
       <c r="C136" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>311</v>
       </c>
@@ -3641,8 +4164,11 @@
       <c r="C137" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>302</v>
       </c>
@@ -3652,8 +4178,11 @@
       <c r="C138" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>446</v>
       </c>
@@ -3663,8 +4192,11 @@
       <c r="C139" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>448</v>
       </c>
@@ -3674,8 +4206,11 @@
       <c r="C140" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>432</v>
       </c>
@@ -3685,8 +4220,11 @@
       <c r="C141" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>31</v>
       </c>
@@ -3696,8 +4234,11 @@
       <c r="C142" s="3">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>444</v>
       </c>
@@ -3707,8 +4248,11 @@
       <c r="C143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>438</v>
       </c>
@@ -3718,8 +4262,11 @@
       <c r="C144" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>436</v>
       </c>
@@ -3729,8 +4276,11 @@
       <c r="C145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>307</v>
       </c>
@@ -3740,8 +4290,11 @@
       <c r="C146" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>303</v>
       </c>
@@ -3751,8 +4304,11 @@
       <c r="C147" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>288</v>
       </c>
@@ -3762,8 +4318,11 @@
       <c r="C148" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>278</v>
       </c>
@@ -3773,8 +4332,11 @@
       <c r="C149" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>158</v>
       </c>
@@ -3784,8 +4346,11 @@
       <c r="C150" s="3">
         <v>10.34</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>232</v>
       </c>
@@ -3795,8 +4360,11 @@
       <c r="C151" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>220</v>
       </c>
@@ -3806,8 +4374,11 @@
       <c r="C152" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>218</v>
       </c>
@@ -3817,8 +4388,11 @@
       <c r="C153" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>216</v>
       </c>
@@ -3828,8 +4402,11 @@
       <c r="C154" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>214</v>
       </c>
@@ -3839,8 +4416,11 @@
       <c r="C155" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>212</v>
       </c>
@@ -3850,8 +4430,11 @@
       <c r="C156" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>209</v>
       </c>
@@ -3861,8 +4444,11 @@
       <c r="C157" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>204</v>
       </c>
@@ -3872,8 +4458,11 @@
       <c r="C158" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -3883,8 +4472,11 @@
       <c r="C159" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>196</v>
       </c>
@@ -3894,8 +4486,11 @@
       <c r="C160" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>200</v>
       </c>
@@ -3905,8 +4500,11 @@
       <c r="C161" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>198</v>
       </c>
@@ -3916,8 +4514,11 @@
       <c r="C162" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>181</v>
       </c>
@@ -3927,8 +4528,11 @@
       <c r="C163" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
@@ -3938,8 +4542,11 @@
       <c r="C164" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>176</v>
       </c>
@@ -3949,8 +4556,11 @@
       <c r="C165" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>185</v>
       </c>
@@ -3960,8 +4570,11 @@
       <c r="C166" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>187</v>
       </c>
@@ -3971,8 +4584,11 @@
       <c r="C167" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -3982,8 +4598,11 @@
       <c r="C168" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>192</v>
       </c>
@@ -3993,8 +4612,11 @@
       <c r="C169" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>434</v>
       </c>
@@ -4004,8 +4626,11 @@
       <c r="C170" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>222</v>
       </c>
@@ -4015,8 +4640,11 @@
       <c r="C171" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>223</v>
       </c>
@@ -4026,8 +4654,11 @@
       <c r="C172" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>268</v>
       </c>
@@ -4037,8 +4668,11 @@
       <c r="C173" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>430</v>
       </c>
@@ -4048,8 +4682,11 @@
       <c r="C174" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>265</v>
       </c>
@@ -4059,8 +4696,11 @@
       <c r="C175" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>264</v>
       </c>
@@ -4070,8 +4710,11 @@
       <c r="C176" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>263</v>
       </c>
@@ -4081,8 +4724,11 @@
       <c r="C177" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>262</v>
       </c>
@@ -4092,8 +4738,11 @@
       <c r="C178" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>261</v>
       </c>
@@ -4103,8 +4752,11 @@
       <c r="C179" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>258</v>
       </c>
@@ -4114,8 +4766,11 @@
       <c r="C180" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>274</v>
       </c>
@@ -4125,8 +4780,11 @@
       <c r="C181" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>251</v>
       </c>
@@ -4136,8 +4794,11 @@
       <c r="C182" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>18</v>
       </c>
@@ -4147,8 +4808,11 @@
       <c r="C183" s="3">
         <v>29.03</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>45</v>
       </c>
@@ -4158,8 +4822,11 @@
       <c r="C184" s="3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>236</v>
       </c>
@@ -4169,8 +4836,11 @@
       <c r="C185" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>230</v>
       </c>
@@ -4180,8 +4850,11 @@
       <c r="C186" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>272</v>
       </c>
@@ -4191,8 +4864,11 @@
       <c r="C187" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>174</v>
       </c>
@@ -4202,8 +4878,11 @@
       <c r="C188" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>240</v>
       </c>
@@ -4213,8 +4892,11 @@
       <c r="C189" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>271</v>
       </c>
@@ -4224,8 +4906,11 @@
       <c r="C190" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>184</v>
       </c>
@@ -4235,8 +4920,11 @@
       <c r="C191" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>183</v>
       </c>
@@ -4246,8 +4934,11 @@
       <c r="C192" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>211</v>
       </c>
@@ -4257,8 +4948,11 @@
       <c r="C193" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>257</v>
       </c>
@@ -4268,8 +4962,11 @@
       <c r="C194" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>208</v>
       </c>
@@ -4279,8 +4976,11 @@
       <c r="C195" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>207</v>
       </c>
@@ -4290,8 +4990,11 @@
       <c r="C196" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>180</v>
       </c>
@@ -4301,8 +5004,11 @@
       <c r="C197" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>191</v>
       </c>
@@ -4312,8 +5018,11 @@
       <c r="C198" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>225</v>
       </c>
@@ -4323,8 +5032,11 @@
       <c r="C199" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>269</v>
       </c>
@@ -4334,8 +5046,11 @@
       <c r="C200" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>255</v>
       </c>
@@ -4345,8 +5060,11 @@
       <c r="C201" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>249</v>
       </c>
@@ -4356,8 +5074,11 @@
       <c r="C202" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>234</v>
       </c>
@@ -4367,8 +5088,11 @@
       <c r="C203" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>228</v>
       </c>
@@ -4378,8 +5102,11 @@
       <c r="C204" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>420</v>
       </c>
@@ -4389,8 +5116,11 @@
       <c r="C205" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>417</v>
       </c>
@@ -4400,8 +5130,11 @@
       <c r="C206" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>402</v>
       </c>
@@ -4411,8 +5144,11 @@
       <c r="C207" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>443</v>
       </c>
@@ -4422,8 +5158,11 @@
       <c r="C208" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>245</v>
       </c>
@@ -4433,8 +5172,11 @@
       <c r="C209" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>247</v>
       </c>
@@ -4444,8 +5186,11 @@
       <c r="C210" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>253</v>
       </c>
@@ -4455,8 +5200,11 @@
       <c r="C211" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>259</v>
       </c>
@@ -4466,8 +5214,11 @@
       <c r="C212" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>224</v>
       </c>
@@ -4477,8 +5228,11 @@
       <c r="C213" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>178</v>
       </c>
@@ -4488,8 +5242,11 @@
       <c r="C214" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>206</v>
       </c>
@@ -4499,8 +5256,11 @@
       <c r="C215" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>394</v>
       </c>
@@ -4510,8 +5270,11 @@
       <c r="C216" s="3">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>290</v>
       </c>
@@ -4521,8 +5284,11 @@
       <c r="C217" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>299</v>
       </c>
@@ -4532,8 +5298,11 @@
       <c r="C218" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>243</v>
       </c>
@@ -4543,8 +5312,11 @@
       <c r="C219" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>415</v>
       </c>
@@ -4554,8 +5326,11 @@
       <c r="C220" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>242</v>
       </c>
@@ -4565,8 +5340,11 @@
       <c r="C221" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>238</v>
       </c>
@@ -4576,8 +5354,11 @@
       <c r="C222" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>226</v>
       </c>
@@ -4587,8 +5368,11 @@
       <c r="C223" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>424</v>
       </c>
@@ -4598,8 +5382,11 @@
       <c r="C224" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>266</v>
       </c>
@@ -4609,8 +5396,11 @@
       <c r="C225" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>368</v>
       </c>
@@ -4620,8 +5410,11 @@
       <c r="C226" s="3">
         <v>6.71</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>315</v>
       </c>
@@ -4631,8 +5424,11 @@
       <c r="C227" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>25</v>
       </c>
@@ -4642,8 +5438,11 @@
       <c r="C228" s="3">
         <v>24.05</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>346</v>
       </c>
@@ -4653,8 +5452,11 @@
       <c r="C229" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>412</v>
       </c>
@@ -4664,8 +5466,11 @@
       <c r="C230" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>142</v>
       </c>
@@ -4675,8 +5480,11 @@
       <c r="C231" s="3">
         <v>10.94</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>114</v>
       </c>
@@ -4686,8 +5494,11 @@
       <c r="C232" s="3">
         <v>11.68</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>60</v>
       </c>
@@ -4697,8 +5508,11 @@
       <c r="C233" s="3">
         <v>15.61</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>33</v>
       </c>
@@ -4708,8 +5522,11 @@
       <c r="C234" s="3">
         <v>19.579999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>126</v>
       </c>
@@ -4719,8 +5536,11 @@
       <c r="C235" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>442</v>
       </c>
@@ -4730,8 +5550,11 @@
       <c r="C236" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>128</v>
       </c>
@@ -4741,8 +5564,11 @@
       <c r="C237" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>341</v>
       </c>
@@ -4752,8 +5578,11 @@
       <c r="C238" s="3">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>125</v>
       </c>
@@ -4763,8 +5592,11 @@
       <c r="C239" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>369</v>
       </c>
@@ -4774,8 +5606,11 @@
       <c r="C240" s="3">
         <v>6.64</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>398</v>
       </c>
@@ -4785,8 +5620,11 @@
       <c r="C241" s="3">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>355</v>
       </c>
@@ -4796,8 +5634,11 @@
       <c r="C242" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>52</v>
       </c>
@@ -4807,8 +5648,11 @@
       <c r="C243" s="3">
         <v>16.04</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>428</v>
       </c>
@@ -4818,8 +5662,11 @@
       <c r="C244" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>426</v>
       </c>
@@ -4829,8 +5676,11 @@
       <c r="C245" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>130</v>
       </c>
@@ -4840,8 +5690,11 @@
       <c r="C246" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>422</v>
       </c>
@@ -4851,8 +5704,11 @@
       <c r="C247" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>393</v>
       </c>
@@ -4862,8 +5718,11 @@
       <c r="C248" s="3">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>419</v>
       </c>
@@ -4873,8 +5732,11 @@
       <c r="C249" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>282</v>
       </c>
@@ -4884,8 +5746,11 @@
       <c r="C250" s="3">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>133</v>
       </c>
@@ -4895,8 +5760,11 @@
       <c r="C251" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>408</v>
       </c>
@@ -4905,6 +5773,9 @@
       </c>
       <c r="C252" s="3">
         <v>0.12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
